--- a/Code/Results/Cases/Case_4_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_176/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.009697064086367</v>
+        <v>1.195025043834562</v>
       </c>
       <c r="C2">
-        <v>0.3993629782670496</v>
+        <v>0.1929351714631196</v>
       </c>
       <c r="D2">
-        <v>0.1926449986046634</v>
+        <v>0.07675989385728599</v>
       </c>
       <c r="E2">
-        <v>0.2109464128846312</v>
+        <v>0.07729536982203911</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008244410574788083</v>
+        <v>0.002572860717651765</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.31408720275266</v>
+        <v>1.309855205363078</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8490633195158708</v>
+        <v>0.4099677081541913</v>
       </c>
       <c r="N2">
-        <v>4.380395782918384</v>
+        <v>4.324869992211319</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.748618066187959</v>
+        <v>1.133608488428848</v>
       </c>
       <c r="C3">
-        <v>0.3449937102844842</v>
+        <v>0.1798040361767903</v>
       </c>
       <c r="D3">
-        <v>0.1660062088524512</v>
+        <v>0.06987593982898943</v>
       </c>
       <c r="E3">
-        <v>0.1810669990819136</v>
+        <v>0.06974987679675593</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008342574246174973</v>
+        <v>0.002578550013180779</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.009782674202768</v>
+        <v>1.237781535250832</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7337940487504682</v>
+        <v>0.3819759296136596</v>
       </c>
       <c r="N3">
-        <v>4.118078319056735</v>
+        <v>4.238471299622972</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.592091838883448</v>
+        <v>1.096674237852653</v>
       </c>
       <c r="C4">
-        <v>0.3124294935761895</v>
+        <v>0.1718682979771131</v>
       </c>
       <c r="D4">
-        <v>0.1499859314692316</v>
+        <v>0.06569231346102811</v>
       </c>
       <c r="E4">
-        <v>0.1631609815746629</v>
+        <v>0.06516241655330646</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008404213135301947</v>
+        <v>0.002582222482562702</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.827380741595135</v>
+        <v>1.194384315689092</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6647019672629568</v>
+        <v>0.3650564059615036</v>
       </c>
       <c r="N4">
-        <v>3.960708610843227</v>
+        <v>4.185769544798717</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.529133210300472</v>
+        <v>1.081816758024416</v>
       </c>
       <c r="C5">
-        <v>0.299336760738214</v>
+        <v>0.1686658855076359</v>
       </c>
       <c r="D5">
-        <v>0.1435300542366065</v>
+        <v>0.06399812098496227</v>
       </c>
       <c r="E5">
-        <v>0.1559585475020029</v>
+        <v>0.06330413337100538</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008429699156763614</v>
+        <v>0.002583764274657237</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.754020712763491</v>
+        <v>1.176912977158366</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6369116744734455</v>
+        <v>0.358227950883041</v>
       </c>
       <c r="N5">
-        <v>3.897397839440544</v>
+        <v>4.164378877138091</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.518725562876682</v>
+        <v>1.079361328800985</v>
       </c>
       <c r="C6">
-        <v>0.297172661563792</v>
+        <v>0.168136015406759</v>
       </c>
       <c r="D6">
-        <v>0.1424621113109197</v>
+        <v>0.06371744077091535</v>
       </c>
       <c r="E6">
-        <v>0.1547678466506284</v>
+        <v>0.06299623129783072</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008433953963326803</v>
+        <v>0.00258402302480603</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.741893909467706</v>
+        <v>1.174024706223435</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.632317588243275</v>
+        <v>0.3570980751185644</v>
       </c>
       <c r="N6">
-        <v>3.886931546839378</v>
+        <v>4.160832103315272</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.59123956176137</v>
+        <v>1.096473083127393</v>
       </c>
       <c r="C7">
-        <v>0.3122522374586367</v>
+        <v>0.1718249822804978</v>
       </c>
       <c r="D7">
-        <v>0.1498985866629283</v>
+        <v>0.06566942202364601</v>
       </c>
       <c r="E7">
-        <v>0.163063485052902</v>
+        <v>0.06513731036296377</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008404555329534496</v>
+        <v>0.002582243092037492</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.826387637944464</v>
+        <v>1.194147829686301</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6643257712911108</v>
+        <v>0.3649640473853069</v>
       </c>
       <c r="N7">
-        <v>3.959851603289849</v>
+        <v>4.185480717883223</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.918815280274913</v>
+        <v>1.173686647276185</v>
       </c>
       <c r="C8">
-        <v>0.3804284907427018</v>
+        <v>0.1883809686771656</v>
       </c>
       <c r="D8">
-        <v>0.1833826104399776</v>
+        <v>0.07437723914951277</v>
       </c>
       <c r="E8">
-        <v>0.2005423445204499</v>
+        <v>0.07468405716203108</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008277989172455226</v>
+        <v>0.002574785289764738</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.208147979344716</v>
+        <v>1.284825273961019</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.808932184680863</v>
+        <v>0.4002600680944752</v>
       </c>
       <c r="N8">
-        <v>4.289112207572089</v>
+        <v>4.295006611737534</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.597420023866448</v>
+        <v>1.331337249307239</v>
       </c>
       <c r="C9">
-        <v>0.5220730728012484</v>
+        <v>0.2218748531168444</v>
       </c>
       <c r="D9">
-        <v>0.2523210329857335</v>
+        <v>0.09180474945503647</v>
       </c>
       <c r="E9">
-        <v>0.2783624080524731</v>
+        <v>0.09378072326197895</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008039406749806978</v>
+        <v>0.002561575007495277</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.999517432865218</v>
+        <v>1.469537125329623</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.108833318645381</v>
+        <v>0.4716425372866979</v>
       </c>
       <c r="N9">
-        <v>4.969709761531107</v>
+        <v>4.512627668471993</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.128104354627453</v>
+        <v>1.451089078158304</v>
       </c>
       <c r="C10">
-        <v>0.6333293053388616</v>
+        <v>0.2471416672106272</v>
       </c>
       <c r="D10">
-        <v>0.305942639688098</v>
+        <v>0.1048370893344384</v>
       </c>
       <c r="E10">
-        <v>0.3395159714068186</v>
+        <v>0.1080615253800659</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007868029919065821</v>
+        <v>0.002552721060895196</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.619007597662687</v>
+        <v>1.609601663125773</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.343897317324931</v>
+        <v>0.5254757577652072</v>
       </c>
       <c r="N10">
-        <v>5.499982959486772</v>
+        <v>4.674379392255418</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.379178650409472</v>
+        <v>1.50644806759982</v>
       </c>
       <c r="C11">
-        <v>0.6861346350583233</v>
+        <v>0.2587865287289901</v>
       </c>
       <c r="D11">
-        <v>0.3312417479343566</v>
+        <v>0.1108185801734436</v>
       </c>
       <c r="E11">
-        <v>0.3685631315051836</v>
+        <v>0.1146174215653204</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007790397624218163</v>
+        <v>0.002548875820673063</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.912313178637646</v>
+        <v>1.674301519117876</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.455313561216585</v>
+        <v>0.550282519585906</v>
       </c>
       <c r="N11">
-        <v>5.75016339673715</v>
+        <v>4.748399490264546</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.475910321140191</v>
+        <v>1.527540161373508</v>
       </c>
       <c r="C12">
-        <v>0.7065094457881571</v>
+        <v>0.2632183751721584</v>
       </c>
       <c r="D12">
-        <v>0.3409779971389355</v>
+        <v>0.113091471203191</v>
       </c>
       <c r="E12">
-        <v>0.3797756425408565</v>
+        <v>0.1171088906032551</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000776099621550834</v>
+        <v>0.002547445791690182</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.025354431507083</v>
+        <v>1.698945708398639</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.498277139683225</v>
+        <v>0.5597230227212009</v>
       </c>
       <c r="N12">
-        <v>5.846423989759103</v>
+        <v>4.77649412679466</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.454999103753096</v>
+        <v>1.522991841556291</v>
       </c>
       <c r="C13">
-        <v>0.7021034089063107</v>
+        <v>0.2622629028273877</v>
       </c>
       <c r="D13">
-        <v>0.3388737283435859</v>
+        <v>0.1126016118671913</v>
       </c>
       <c r="E13">
-        <v>0.3773507080438918</v>
+        <v>0.1165719071712772</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007767329400783285</v>
+        <v>0.00254775261674617</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.000915573401983</v>
+        <v>1.693631710658678</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.488987532535077</v>
+        <v>0.557687746978047</v>
       </c>
       <c r="N13">
-        <v>5.82562068017819</v>
+        <v>4.77044053201854</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.387101971060304</v>
+        <v>1.508180733954475</v>
       </c>
       <c r="C14">
-        <v>0.6878028964020757</v>
+        <v>0.2591506918023185</v>
       </c>
       <c r="D14">
-        <v>0.3320394660057673</v>
+        <v>0.1110054141578871</v>
       </c>
       <c r="E14">
-        <v>0.3694810922314105</v>
+        <v>0.1148222160221053</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007787979150102893</v>
+        <v>0.002548757649676705</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.921571592991256</v>
+        <v>1.676326116994005</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.458831906477897</v>
+        <v>0.551058253152874</v>
       </c>
       <c r="N14">
-        <v>5.758050816949435</v>
+        <v>4.750709543283335</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.345737209711388</v>
+        <v>1.499125337449414</v>
       </c>
       <c r="C15">
-        <v>0.6790947742072433</v>
+        <v>0.2572472773889842</v>
       </c>
       <c r="D15">
-        <v>0.3278744352610516</v>
+        <v>0.1100287229066481</v>
       </c>
       <c r="E15">
-        <v>0.3646896481761814</v>
+        <v>0.1137516480211787</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007800625578378018</v>
+        <v>0.002549376653000695</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.873238414113018</v>
+        <v>1.665744731480231</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.440465496386153</v>
+        <v>0.5470036120078703</v>
       </c>
       <c r="N15">
-        <v>5.716868232907302</v>
+        <v>4.738632239382582</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.111912264163664</v>
+        <v>1.44748916752178</v>
       </c>
       <c r="C16">
-        <v>0.6299276615362999</v>
+        <v>0.2463837260615662</v>
       </c>
       <c r="D16">
-        <v>0.3043096265708556</v>
+        <v>0.104447269224849</v>
       </c>
       <c r="E16">
-        <v>0.3376453558554999</v>
+        <v>0.1076343080597013</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007873105800517595</v>
+        <v>0.002552976014497907</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.600096884286529</v>
+        <v>1.605393366481849</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.336716695269359</v>
+        <v>0.5238610590687642</v>
       </c>
       <c r="N16">
-        <v>5.483832543333932</v>
+        <v>4.669550979256115</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.971119316581792</v>
+        <v>1.416039569857901</v>
       </c>
       <c r="C17">
-        <v>0.6003689170768212</v>
+        <v>0.2397582786417445</v>
       </c>
       <c r="D17">
-        <v>0.2901025632926775</v>
+        <v>0.1010369524289416</v>
       </c>
       <c r="E17">
-        <v>0.3213931256381386</v>
+        <v>0.1038969939622731</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007917620282903833</v>
+        <v>0.002555230727000985</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.435689580025496</v>
+        <v>1.568623346468485</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.274303286727502</v>
+        <v>0.50974596335206</v>
       </c>
       <c r="N17">
-        <v>5.343322446086376</v>
+        <v>4.627285419585405</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.891030309720918</v>
+        <v>1.398033619885155</v>
       </c>
       <c r="C18">
-        <v>0.5835697168307661</v>
+        <v>0.2359616660262134</v>
       </c>
       <c r="D18">
-        <v>0.2820145924217741</v>
+        <v>0.09908040574973143</v>
       </c>
       <c r="E18">
-        <v>0.3121583627728981</v>
+        <v>0.1017529683899099</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007943258174493018</v>
+        <v>0.002556544762002845</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.342187045596518</v>
+        <v>1.547566663188377</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.238818071714519</v>
+        <v>0.5016571801080687</v>
       </c>
       <c r="N18">
-        <v>5.263331751873011</v>
+        <v>4.603016546276109</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.864059221678303</v>
+        <v>1.391951319387829</v>
       </c>
       <c r="C19">
-        <v>0.5779147704583067</v>
+        <v>0.2346786168805579</v>
       </c>
       <c r="D19">
-        <v>0.2792897769686249</v>
+        <v>0.09841880128205105</v>
       </c>
       <c r="E19">
-        <v>0.3090500425432126</v>
+        <v>0.1010279860649987</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007951946044915115</v>
+        <v>0.002556992627747983</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.310701864406781</v>
+        <v>1.540453043086359</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.226870815221389</v>
+        <v>0.4989235522555333</v>
       </c>
       <c r="N19">
-        <v>5.236383747609665</v>
+        <v>4.59480653773096</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.986012922086559</v>
+        <v>1.419378827122671</v>
       </c>
       <c r="C20">
-        <v>0.603494144447609</v>
+        <v>0.24046209877352</v>
       </c>
       <c r="D20">
-        <v>0.2916061084017088</v>
+        <v>0.1013994698502501</v>
       </c>
       <c r="E20">
-        <v>0.3231112546545489</v>
+        <v>0.1042942576194932</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007912878430192527</v>
+        <v>0.00255498893166284</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.453079139297927</v>
+        <v>1.572527992209928</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.280903663203091</v>
+        <v>0.511245443008491</v>
       </c>
       <c r="N20">
-        <v>5.358192810628196</v>
+        <v>4.631780387925204</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.406997746004208</v>
+        <v>1.512527603652586</v>
       </c>
       <c r="C21">
-        <v>0.6919924733456355</v>
+        <v>0.2600642173845245</v>
       </c>
       <c r="D21">
-        <v>0.3340423945494706</v>
+        <v>0.1114740419392461</v>
       </c>
       <c r="E21">
-        <v>0.3717864876535515</v>
+        <v>0.1153358986302138</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007781914365418094</v>
+        <v>0.0025484617405584</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.944820491423229</v>
+        <v>1.681405269314723</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.467667249307098</v>
+        <v>0.5530042199196572</v>
       </c>
       <c r="N21">
-        <v>5.777854339067744</v>
+        <v>4.75650323908917</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.691940562870286</v>
+        <v>1.574157604680011</v>
       </c>
       <c r="C22">
-        <v>0.7520753386830847</v>
+        <v>0.2730049131729402</v>
       </c>
       <c r="D22">
-        <v>0.3627014990822772</v>
+        <v>0.1181040966072828</v>
       </c>
       <c r="E22">
-        <v>0.4048616822324718</v>
+        <v>0.1226042484513954</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007696270051832807</v>
+        <v>0.00254434778446964</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.277889626251692</v>
+        <v>1.753401892071793</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.594307485742675</v>
+        <v>0.5805688097208304</v>
       </c>
       <c r="N22">
-        <v>6.061140636876189</v>
+        <v>4.838395567377006</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.538864403828654</v>
+        <v>1.541195099833772</v>
       </c>
       <c r="C23">
-        <v>0.7197789023744008</v>
+        <v>0.2660861973834869</v>
       </c>
       <c r="D23">
-        <v>0.3473113796479481</v>
+        <v>0.1145612571789485</v>
       </c>
       <c r="E23">
-        <v>0.3870795197068517</v>
+        <v>0.1187201219250653</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007742003821888943</v>
+        <v>0.002546529629840795</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.098934916918722</v>
+        <v>1.714898399508911</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.526250105577006</v>
+        <v>0.5658317623568934</v>
       </c>
       <c r="N23">
-        <v>5.909032842489182</v>
+        <v>4.794652840032825</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.979276880214684</v>
+        <v>1.417868915932672</v>
       </c>
       <c r="C24">
-        <v>0.6020806278944235</v>
+        <v>0.2401438629648567</v>
       </c>
       <c r="D24">
-        <v>0.2909261087972794</v>
+        <v>0.1012355630007278</v>
       </c>
       <c r="E24">
-        <v>0.3223341521089935</v>
+        <v>0.1041146403987909</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007915022075862109</v>
+        <v>0.002555098192276937</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.445214173957595</v>
+        <v>1.570762443855415</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.277918405525668</v>
+        <v>0.5105674468091905</v>
       </c>
       <c r="N24">
-        <v>5.351467474054516</v>
+        <v>4.629748118931843</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.409007397284483</v>
+        <v>1.288008304897801</v>
       </c>
       <c r="C25">
-        <v>0.4826811615382383</v>
+        <v>0.2127005379638263</v>
       </c>
       <c r="D25">
-        <v>0.2332277667449603</v>
+        <v>0.08705107369578968</v>
       </c>
       <c r="E25">
-        <v>0.256719939583796</v>
+        <v>0.08857215693641507</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008103106553626878</v>
+        <v>0.002564998413873143</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.779713816400971</v>
+        <v>1.418813884033796</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.025501196581224</v>
+        <v>0.4520927824124783</v>
       </c>
       <c r="N25">
-        <v>4.780998819304102</v>
+        <v>4.453437516539537</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_176/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.195025043834562</v>
+        <v>2.009697064086367</v>
       </c>
       <c r="C2">
-        <v>0.1929351714631196</v>
+        <v>0.3993629782671064</v>
       </c>
       <c r="D2">
-        <v>0.07675989385728599</v>
+        <v>0.1926449986048198</v>
       </c>
       <c r="E2">
-        <v>0.07729536982203911</v>
+        <v>0.2109464128845602</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002572860717651765</v>
+        <v>0.0008244410574926079</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.309855205363078</v>
+        <v>2.314087202752575</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4099677081541913</v>
+        <v>0.8490633195158637</v>
       </c>
       <c r="N2">
-        <v>4.324869992211319</v>
+        <v>4.380395782918384</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.133608488428848</v>
+        <v>1.748618066187845</v>
       </c>
       <c r="C3">
-        <v>0.1798040361767903</v>
+        <v>0.3449937102844842</v>
       </c>
       <c r="D3">
-        <v>0.06987593982898943</v>
+        <v>0.1660062088520959</v>
       </c>
       <c r="E3">
-        <v>0.06974987679675593</v>
+        <v>0.1810669990818567</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002578550013180779</v>
+        <v>0.0008342574245711466</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.237781535250832</v>
+        <v>2.009782674202796</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3819759296136596</v>
+        <v>0.7337940487504753</v>
       </c>
       <c r="N3">
-        <v>4.238471299622972</v>
+        <v>4.118078319056735</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.096674237852653</v>
+        <v>1.592091838883306</v>
       </c>
       <c r="C4">
-        <v>0.1718682979771131</v>
+        <v>0.3124294935759622</v>
       </c>
       <c r="D4">
-        <v>0.06569231346102811</v>
+        <v>0.1499859314690752</v>
       </c>
       <c r="E4">
-        <v>0.06516241655330646</v>
+        <v>0.1631609815746984</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002582222482562702</v>
+        <v>0.0008404213135867518</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.194384315689092</v>
+        <v>1.827380741595135</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3650564059615036</v>
+        <v>0.664701967262971</v>
       </c>
       <c r="N4">
-        <v>4.185769544798717</v>
+        <v>3.960708610843255</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.081816758024416</v>
+        <v>1.529133210300557</v>
       </c>
       <c r="C5">
-        <v>0.1686658855076359</v>
+        <v>0.2993367607377593</v>
       </c>
       <c r="D5">
-        <v>0.06399812098496227</v>
+        <v>0.1435300542366065</v>
       </c>
       <c r="E5">
-        <v>0.06330413337100538</v>
+        <v>0.1559585475019603</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002583764274657237</v>
+        <v>0.0008429699154848258</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.176912977158366</v>
+        <v>1.754020712763435</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.358227950883041</v>
+        <v>0.6369116744734313</v>
       </c>
       <c r="N5">
-        <v>4.164378877138091</v>
+        <v>3.897397839440515</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.079361328800985</v>
+        <v>1.51872556287671</v>
       </c>
       <c r="C6">
-        <v>0.168136015406759</v>
+        <v>0.2971726615642467</v>
       </c>
       <c r="D6">
-        <v>0.06371744077091535</v>
+        <v>0.1424621113113034</v>
       </c>
       <c r="E6">
-        <v>0.06299623129783072</v>
+        <v>0.1547678466505999</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00258402302480603</v>
+        <v>0.0008433953963331243</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.174024706223435</v>
+        <v>1.741893909467734</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3570980751185644</v>
+        <v>0.632317588243275</v>
       </c>
       <c r="N6">
-        <v>4.160832103315272</v>
+        <v>3.886931546839349</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.096473083127393</v>
+        <v>1.591239561761427</v>
       </c>
       <c r="C7">
-        <v>0.1718249822804978</v>
+        <v>0.3122522374585799</v>
       </c>
       <c r="D7">
-        <v>0.06566942202364601</v>
+        <v>0.149898586663241</v>
       </c>
       <c r="E7">
-        <v>0.06513731036296377</v>
+        <v>0.1630634850528878</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002582243092037492</v>
+        <v>0.0008404555329495356</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.194147829686301</v>
+        <v>1.826387637944464</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3649640473853069</v>
+        <v>0.6643257712910895</v>
       </c>
       <c r="N7">
-        <v>4.185480717883223</v>
+        <v>3.959851603289792</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.173686647276185</v>
+        <v>1.918815280274742</v>
       </c>
       <c r="C8">
-        <v>0.1883809686771656</v>
+        <v>0.3804284907424744</v>
       </c>
       <c r="D8">
-        <v>0.07437723914951277</v>
+        <v>0.1833826104399776</v>
       </c>
       <c r="E8">
-        <v>0.07468405716203108</v>
+        <v>0.2005423445204499</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002574785289764738</v>
+        <v>0.0008277989172456651</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.284825273961019</v>
+        <v>2.208147979344602</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4002600680944752</v>
+        <v>0.808932184680863</v>
       </c>
       <c r="N8">
-        <v>4.295006611737534</v>
+        <v>4.289112207572089</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.331337249307239</v>
+        <v>2.597420023866619</v>
       </c>
       <c r="C9">
-        <v>0.2218748531168444</v>
+        <v>0.5220730728012768</v>
       </c>
       <c r="D9">
-        <v>0.09180474945503647</v>
+        <v>0.252321032985563</v>
       </c>
       <c r="E9">
-        <v>0.09378072326197895</v>
+        <v>0.2783624080524874</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002561575007495277</v>
+        <v>0.0008039406749821285</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.469537125329623</v>
+        <v>2.999517432865389</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4716425372866979</v>
+        <v>1.108833318645381</v>
       </c>
       <c r="N9">
-        <v>4.512627668471993</v>
+        <v>4.969709761531078</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.451089078158304</v>
+        <v>3.128104354627908</v>
       </c>
       <c r="C10">
-        <v>0.2471416672106272</v>
+        <v>0.63332930533889</v>
       </c>
       <c r="D10">
-        <v>0.1048370893344384</v>
+        <v>0.3059426396884533</v>
       </c>
       <c r="E10">
-        <v>0.1080615253800659</v>
+        <v>0.3395159714067901</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002552721060895196</v>
+        <v>0.000786802991984735</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.609601663125773</v>
+        <v>3.619007597662801</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5254757577652072</v>
+        <v>1.343897317324959</v>
       </c>
       <c r="N10">
-        <v>4.674379392255418</v>
+        <v>5.499982959486829</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.50644806759982</v>
+        <v>3.379178650409528</v>
       </c>
       <c r="C11">
-        <v>0.2587865287289901</v>
+        <v>0.6861346350585791</v>
       </c>
       <c r="D11">
-        <v>0.1108185801734436</v>
+        <v>0.3312417479345413</v>
       </c>
       <c r="E11">
-        <v>0.1146174215653204</v>
+        <v>0.3685631315053044</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002548875820673063</v>
+        <v>0.0007790397625442973</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.674301519117876</v>
+        <v>3.91231317863776</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.550282519585906</v>
+        <v>1.455313561216627</v>
       </c>
       <c r="N11">
-        <v>4.748399490264546</v>
+        <v>5.75016339673715</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.527540161373508</v>
+        <v>3.475910321140134</v>
       </c>
       <c r="C12">
-        <v>0.2632183751721584</v>
+        <v>0.706509445788555</v>
       </c>
       <c r="D12">
-        <v>0.113091471203191</v>
+        <v>0.3409779971391487</v>
       </c>
       <c r="E12">
-        <v>0.1171088906032551</v>
+        <v>0.3797756425408139</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002547445791690182</v>
+        <v>0.0007760996215522749</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.698945708398639</v>
+        <v>4.025354431506969</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5597230227212009</v>
+        <v>1.498277139683211</v>
       </c>
       <c r="N12">
-        <v>4.77649412679466</v>
+        <v>5.846423989759046</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.522991841556291</v>
+        <v>3.454999103752868</v>
       </c>
       <c r="C13">
-        <v>0.2622629028273877</v>
+        <v>0.7021034089062823</v>
       </c>
       <c r="D13">
-        <v>0.1126016118671913</v>
+        <v>0.3388737283437422</v>
       </c>
       <c r="E13">
-        <v>0.1165719071712772</v>
+        <v>0.3773507080438563</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00254775261674617</v>
+        <v>0.0007767329400441336</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.693631710658678</v>
+        <v>4.000915573401983</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.557687746978047</v>
+        <v>1.488987532535077</v>
       </c>
       <c r="N13">
-        <v>4.77044053201854</v>
+        <v>5.825620680178247</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.508180733954475</v>
+        <v>3.387101971060019</v>
       </c>
       <c r="C14">
-        <v>0.2591506918023185</v>
+        <v>0.6878028964011662</v>
       </c>
       <c r="D14">
-        <v>0.1110054141578871</v>
+        <v>0.3320394660055825</v>
       </c>
       <c r="E14">
-        <v>0.1148222160221053</v>
+        <v>0.3694810922313749</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002548757649676705</v>
+        <v>0.0007787979149551076</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.676326116994005</v>
+        <v>3.92157159299137</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.551058253152874</v>
+        <v>1.458831906477897</v>
       </c>
       <c r="N14">
-        <v>4.750709543283335</v>
+        <v>5.758050816949492</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.499125337449414</v>
+        <v>3.345737209711672</v>
       </c>
       <c r="C15">
-        <v>0.2572472773889842</v>
+        <v>0.6790947742078117</v>
       </c>
       <c r="D15">
-        <v>0.1100287229066481</v>
+        <v>0.327874435261208</v>
       </c>
       <c r="E15">
-        <v>0.1137516480211787</v>
+        <v>0.3646896481761672</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002549376653000695</v>
+        <v>0.0007800625578338623</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.665744731480231</v>
+        <v>3.873238414113075</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5470036120078703</v>
+        <v>1.440465496386182</v>
       </c>
       <c r="N15">
-        <v>4.738632239382582</v>
+        <v>5.716868232907359</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.44748916752178</v>
+        <v>3.111912264163379</v>
       </c>
       <c r="C16">
-        <v>0.2463837260615662</v>
+        <v>0.6299276615362714</v>
       </c>
       <c r="D16">
-        <v>0.104447269224849</v>
+        <v>0.3043096265706424</v>
       </c>
       <c r="E16">
-        <v>0.1076343080597013</v>
+        <v>0.3376453558555568</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002552976014497907</v>
+        <v>0.0007873105801099456</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.605393366481849</v>
+        <v>3.600096884286643</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5238610590687642</v>
+        <v>1.336716695269359</v>
       </c>
       <c r="N16">
-        <v>4.669550979256115</v>
+        <v>5.483832543333932</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.416039569857901</v>
+        <v>2.971119316581508</v>
       </c>
       <c r="C17">
-        <v>0.2397582786417445</v>
+        <v>0.6003689170765938</v>
       </c>
       <c r="D17">
-        <v>0.1010369524289416</v>
+        <v>0.2901025632926633</v>
       </c>
       <c r="E17">
-        <v>0.1038969939622731</v>
+        <v>0.3213931256381812</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002555230727000985</v>
+        <v>0.0007917620283463921</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.568623346468485</v>
+        <v>3.435689580025496</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.50974596335206</v>
+        <v>1.27430328672753</v>
       </c>
       <c r="N17">
-        <v>4.627285419585405</v>
+        <v>5.343322446086489</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.398033619885155</v>
+        <v>2.891030309721202</v>
       </c>
       <c r="C18">
-        <v>0.2359616660262134</v>
+        <v>0.5835697168301124</v>
       </c>
       <c r="D18">
-        <v>0.09908040574973143</v>
+        <v>0.2820145924217599</v>
       </c>
       <c r="E18">
-        <v>0.1017529683899099</v>
+        <v>0.3121583627728199</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002556544762002845</v>
+        <v>0.0007943258173666102</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.547566663188377</v>
+        <v>3.342187045596575</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5016571801080687</v>
+        <v>1.238818071714505</v>
       </c>
       <c r="N18">
-        <v>4.603016546276109</v>
+        <v>5.263331751872897</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.391951319387829</v>
+        <v>2.864059221677905</v>
       </c>
       <c r="C19">
-        <v>0.2346786168805579</v>
+        <v>0.5779147704583067</v>
       </c>
       <c r="D19">
-        <v>0.09841880128205105</v>
+        <v>0.2792897769683833</v>
       </c>
       <c r="E19">
-        <v>0.1010279860649987</v>
+        <v>0.3090500425431131</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002556992627747983</v>
+        <v>0.0007951946044881189</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.540453043086359</v>
+        <v>3.310701864406894</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4989235522555333</v>
+        <v>1.226870815221417</v>
       </c>
       <c r="N19">
-        <v>4.59480653773096</v>
+        <v>5.23638374760975</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.419378827122671</v>
+        <v>2.986012922086559</v>
       </c>
       <c r="C20">
-        <v>0.24046209877352</v>
+        <v>0.6034941444473532</v>
       </c>
       <c r="D20">
-        <v>0.1013994698502501</v>
+        <v>0.2916061084018509</v>
       </c>
       <c r="E20">
-        <v>0.1042942576194932</v>
+        <v>0.3231112546545702</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00255498893166284</v>
+        <v>0.0007912878429602577</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.572527992209928</v>
+        <v>3.453079139297927</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.511245443008491</v>
+        <v>1.280903663203105</v>
       </c>
       <c r="N20">
-        <v>4.631780387925204</v>
+        <v>5.358192810628168</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.512527603652586</v>
+        <v>3.406997746004151</v>
       </c>
       <c r="C21">
-        <v>0.2600642173845245</v>
+        <v>0.6919924733456639</v>
       </c>
       <c r="D21">
-        <v>0.1114740419392461</v>
+        <v>0.3340423945491011</v>
       </c>
       <c r="E21">
-        <v>0.1153358986302138</v>
+        <v>0.3717864876536225</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0025484617405584</v>
+        <v>0.0007781914365994803</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.681405269314723</v>
+        <v>3.944820491423229</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5530042199196572</v>
+        <v>1.467667249307055</v>
       </c>
       <c r="N21">
-        <v>4.75650323908917</v>
+        <v>5.77785433906763</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.574157604680011</v>
+        <v>3.691940562870343</v>
       </c>
       <c r="C22">
-        <v>0.2730049131729402</v>
+        <v>0.7520753386830563</v>
       </c>
       <c r="D22">
-        <v>0.1181040966072828</v>
+        <v>0.3627014990828599</v>
       </c>
       <c r="E22">
-        <v>0.1226042484513954</v>
+        <v>0.404861682232557</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00254434778446964</v>
+        <v>0.000769627005177668</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.753401892071793</v>
+        <v>4.277889626251863</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5805688097208304</v>
+        <v>1.594307485742675</v>
       </c>
       <c r="N22">
-        <v>4.838395567377006</v>
+        <v>6.061140636876132</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.541195099833772</v>
+        <v>3.538864403828939</v>
       </c>
       <c r="C23">
-        <v>0.2660861973834869</v>
+        <v>0.7197789023743724</v>
       </c>
       <c r="D23">
-        <v>0.1145612571789485</v>
+        <v>0.3473113796479623</v>
       </c>
       <c r="E23">
-        <v>0.1187201219250653</v>
+        <v>0.3870795197068588</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002546529629840795</v>
+        <v>0.0007742003822798217</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.714898399508911</v>
+        <v>4.098934916918836</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5658317623568934</v>
+        <v>1.526250105577034</v>
       </c>
       <c r="N23">
-        <v>4.794652840032825</v>
+        <v>5.909032842489182</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.417868915932672</v>
+        <v>2.979276880215025</v>
       </c>
       <c r="C24">
-        <v>0.2401438629648567</v>
+        <v>0.6020806278949919</v>
       </c>
       <c r="D24">
-        <v>0.1012355630007278</v>
+        <v>0.2909261087976347</v>
       </c>
       <c r="E24">
-        <v>0.1041146403987909</v>
+        <v>0.3223341521089864</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002555098192276937</v>
+        <v>0.0007915022076119517</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.570762443855415</v>
+        <v>3.445214173957709</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5105674468091905</v>
+        <v>1.277918405525682</v>
       </c>
       <c r="N24">
-        <v>4.629748118931843</v>
+        <v>5.351467474054488</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.288008304897801</v>
+        <v>2.409007397284824</v>
       </c>
       <c r="C25">
-        <v>0.2127005379638263</v>
+        <v>0.4826811615382098</v>
       </c>
       <c r="D25">
-        <v>0.08705107369578968</v>
+        <v>0.233227766744676</v>
       </c>
       <c r="E25">
-        <v>0.08857215693641507</v>
+        <v>0.2567199395838102</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002564998413873143</v>
+        <v>0.0008103106554908075</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.418813884033796</v>
+        <v>2.779713816400886</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4520927824124783</v>
+        <v>1.025501196581232</v>
       </c>
       <c r="N25">
-        <v>4.453437516539537</v>
+        <v>4.780998819304074</v>
       </c>
       <c r="O25">
         <v>0</v>
